--- a/division_task.xlsx
+++ b/division_task.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lee nauht\Desktop\Bai-tap\Cyber-Capstone\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9000"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22188" windowHeight="9000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -27,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="35">
   <si>
     <t>Tasks Name</t>
   </si>
@@ -259,18 +264,24 @@
   <si>
     <t>Footer</t>
   </si>
+  <si>
+    <t>Back to top</t>
+  </si>
+  <si>
+    <t>30/11</t>
+  </si>
+  <si>
+    <t>01/12</t>
+  </si>
+  <si>
+    <t>20/11</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="23">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -300,152 +311,8 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="38">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -472,204 +339,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.6"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.6"/>
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -694,253 +381,22 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color auto="1"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -968,9 +424,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -986,93 +439,165 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Currency" xfId="2" builtinId="4"/>
-    <cellStyle name="Percent" xfId="3" builtinId="5"/>
-    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
-    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
-    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
-    <cellStyle name="Note" xfId="8" builtinId="10"/>
-    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
-    <cellStyle name="Title" xfId="10" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
-    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
-    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
-    <cellStyle name="Input" xfId="16" builtinId="20"/>
-    <cellStyle name="Output" xfId="17" builtinId="21"/>
-    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
-    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
-    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
-    <cellStyle name="Total" xfId="21" builtinId="25"/>
-    <cellStyle name="Good" xfId="22" builtinId="26"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
-    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
   <dxfs count="17">
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
       <fill>
         <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
         </patternFill>
       </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
         <color theme="1"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
         <color theme="1"/>
       </font>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
         <color theme="1"/>
       </font>
       <border>
@@ -1083,7 +608,7 @@
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
         <color theme="0"/>
       </font>
       <fill>
@@ -1111,154 +636,40 @@
           <color theme="4"/>
         </bottom>
         <horizontal style="thin">
-          <color theme="4" tint="0.399975585192419"/>
+          <color theme="4" tint="0.39994506668294322"/>
         </horizontal>
       </border>
     </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
-    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
-      <tableStyleElement type="wholeTable" dxfId="6"/>
-      <tableStyleElement type="headerRow" dxfId="5"/>
-      <tableStyleElement type="totalRow" dxfId="4"/>
-      <tableStyleElement type="firstColumn" dxfId="3"/>
-      <tableStyleElement type="lastColumn" dxfId="2"/>
-      <tableStyleElement type="firstRowStripe" dxfId="1"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="0"/>
+    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7">
+      <tableStyleElement type="wholeTable" dxfId="16"/>
+      <tableStyleElement type="headerRow" dxfId="15"/>
+      <tableStyleElement type="totalRow" dxfId="14"/>
+      <tableStyleElement type="firstColumn" dxfId="13"/>
+      <tableStyleElement type="lastColumn" dxfId="12"/>
+      <tableStyleElement type="firstRowStripe" dxfId="11"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="10"/>
     </tableStyle>
-    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
-      <tableStyleElement type="headerRow" dxfId="16"/>
-      <tableStyleElement type="totalRow" dxfId="15"/>
-      <tableStyleElement type="firstRowStripe" dxfId="14"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="13"/>
-      <tableStyleElement type="firstSubtotalRow" dxfId="12"/>
-      <tableStyleElement type="secondSubtotalRow" dxfId="11"/>
-      <tableStyleElement type="firstRowSubheading" dxfId="10"/>
-      <tableStyleElement type="secondRowSubheading" dxfId="9"/>
-      <tableStyleElement type="pageFieldLabels" dxfId="8"/>
-      <tableStyleElement type="pageFieldValues" dxfId="7"/>
+    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10">
+      <tableStyleElement type="headerRow" dxfId="9"/>
+      <tableStyleElement type="totalRow" dxfId="8"/>
+      <tableStyleElement type="firstRowStripe" dxfId="7"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="6"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="5"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="4"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="3"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="2"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="1"/>
+      <tableStyleElement type="pageFieldValues" dxfId="0"/>
     </tableStyle>
   </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1516,26 +927,26 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:J18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="18.7777777777778" customWidth="1"/>
+    <col min="1" max="1" width="18.77734375" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
-    <col min="9" max="9" width="10.4444444444444" customWidth="1"/>
+    <col min="9" max="9" width="10.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="24" spans="1:10">
+    <row r="1" spans="1:10" ht="24">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1560,7 +971,7 @@
       <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="13" t="s">
         <v>4</v>
       </c>
       <c r="J1" s="1" t="s">
@@ -1586,7 +997,7 @@
       <c r="F2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="G2" s="14" t="s">
         <v>13</v>
       </c>
       <c r="H2" s="7">
@@ -1616,7 +1027,7 @@
       <c r="F3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="15" t="s">
+      <c r="G3" s="14" t="s">
         <v>13</v>
       </c>
       <c r="H3" s="7">
@@ -1646,7 +1057,7 @@
       <c r="F4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="G4" s="14" t="s">
         <v>13</v>
       </c>
       <c r="H4" s="7">
@@ -1676,7 +1087,7 @@
       <c r="F5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="15" t="s">
+      <c r="G5" s="14" t="s">
         <v>13</v>
       </c>
       <c r="H5" s="7">
@@ -1688,7 +1099,7 @@
       <c r="J5" s="6"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B6" s="6" t="s">
@@ -1706,7 +1117,7 @@
       <c r="F6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="15" t="s">
+      <c r="G6" s="14" t="s">
         <v>13</v>
       </c>
       <c r="H6" s="7">
@@ -1715,10 +1126,10 @@
       <c r="I6" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="J6" s="10"/>
+      <c r="J6" s="9"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="9" t="s">
         <v>18</v>
       </c>
       <c r="B7" s="6" t="s">
@@ -1736,7 +1147,7 @@
       <c r="F7" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="15" t="s">
+      <c r="G7" s="14" t="s">
         <v>13</v>
       </c>
       <c r="H7" s="7">
@@ -1745,10 +1156,10 @@
       <c r="I7" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="J7" s="10"/>
+      <c r="J7" s="9"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="9" t="s">
         <v>19</v>
       </c>
       <c r="B8" s="6" t="s">
@@ -1766,7 +1177,7 @@
       <c r="F8" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="15" t="s">
+      <c r="G8" s="14" t="s">
         <v>13</v>
       </c>
       <c r="H8" s="7">
@@ -1775,10 +1186,10 @@
       <c r="I8" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="J8" s="10"/>
+      <c r="J8" s="9"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="9" t="s">
         <v>20</v>
       </c>
       <c r="B9" s="6" t="s">
@@ -1796,7 +1207,7 @@
       <c r="F9" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="15" t="s">
+      <c r="G9" s="14" t="s">
         <v>13</v>
       </c>
       <c r="H9" s="7">
@@ -1805,10 +1216,10 @@
       <c r="I9" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="J9" s="10"/>
+      <c r="J9" s="9"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="9" t="s">
         <v>21</v>
       </c>
       <c r="B10" s="6" t="s">
@@ -1826,7 +1237,7 @@
       <c r="F10" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="15" t="s">
+      <c r="G10" s="14" t="s">
         <v>13</v>
       </c>
       <c r="H10" s="7">
@@ -1835,10 +1246,10 @@
       <c r="I10" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="J10" s="10"/>
+      <c r="J10" s="9"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="9" t="s">
         <v>22</v>
       </c>
       <c r="B11" s="6" t="s">
@@ -1850,25 +1261,25 @@
       <c r="D11" s="7">
         <v>1</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="E11" s="10" t="s">
         <v>23</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G11" s="15" t="s">
+      <c r="G11" s="14" t="s">
         <v>13</v>
       </c>
       <c r="H11" s="7">
         <v>1</v>
       </c>
-      <c r="I11" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="J11" s="10"/>
+      <c r="I11" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="J11" s="9"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="9" t="s">
         <v>24</v>
       </c>
       <c r="B12" s="6" t="s">
@@ -1880,25 +1291,25 @@
       <c r="D12" s="7">
         <v>1</v>
       </c>
-      <c r="E12" s="11" t="s">
+      <c r="E12" s="10" t="s">
         <v>23</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G12" s="15" t="s">
+      <c r="G12" s="14" t="s">
         <v>13</v>
       </c>
       <c r="H12" s="7">
         <v>1</v>
       </c>
-      <c r="I12" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="J12" s="10"/>
+      <c r="I12" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="J12" s="9"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="11" t="s">
         <v>25</v>
       </c>
       <c r="B13" s="6" t="s">
@@ -1910,25 +1321,25 @@
       <c r="D13" s="7">
         <v>1</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="E13" s="10" t="s">
         <v>23</v>
       </c>
       <c r="F13" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G13" s="15" t="s">
+      <c r="G13" s="14" t="s">
         <v>13</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
       </c>
-      <c r="I13" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="J13" s="10"/>
+      <c r="I13" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="J13" s="9"/>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="11" t="s">
         <v>26</v>
       </c>
       <c r="B14" s="6" t="s">
@@ -1940,25 +1351,25 @@
       <c r="D14" s="7">
         <v>1</v>
       </c>
-      <c r="E14" s="11" t="s">
+      <c r="E14" s="10" t="s">
         <v>23</v>
       </c>
       <c r="F14" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G14" s="15" t="s">
+      <c r="G14" s="14" t="s">
         <v>13</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
       </c>
-      <c r="I14" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="J14" s="10"/>
+      <c r="I14" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="J14" s="9"/>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="9" t="s">
         <v>27</v>
       </c>
       <c r="B15" s="6" t="s">
@@ -1970,25 +1381,25 @@
       <c r="D15" s="7">
         <v>1</v>
       </c>
-      <c r="E15" s="11" t="s">
+      <c r="E15" s="10" t="s">
         <v>23</v>
       </c>
       <c r="F15" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G15" s="15" t="s">
+      <c r="G15" s="14" t="s">
         <v>13</v>
       </c>
       <c r="H15" s="7">
         <v>1</v>
       </c>
-      <c r="I15" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="J15" s="10"/>
+      <c r="I15" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="J15" s="9"/>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="9" t="s">
         <v>28</v>
       </c>
       <c r="B16" s="6" t="s">
@@ -2000,25 +1411,25 @@
       <c r="D16" s="7">
         <v>1</v>
       </c>
-      <c r="E16" s="11" t="s">
+      <c r="E16" s="10" t="s">
         <v>23</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G16" s="15" t="s">
+      <c r="G16" s="14" t="s">
         <v>13</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
       </c>
-      <c r="I16" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="J16" s="10"/>
+      <c r="I16" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="J16" s="9"/>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="9" t="s">
         <v>29</v>
       </c>
       <c r="B17" s="6" t="s">
@@ -2030,25 +1441,25 @@
       <c r="D17" s="7">
         <v>1</v>
       </c>
-      <c r="E17" s="11" t="s">
+      <c r="E17" s="10" t="s">
         <v>23</v>
       </c>
       <c r="F17" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G17" s="15" t="s">
+      <c r="G17" s="14" t="s">
         <v>13</v>
       </c>
       <c r="H17" s="7">
         <v>1</v>
       </c>
-      <c r="I17" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="J17" s="10"/>
+      <c r="I17" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="J17" s="9"/>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="13" t="s">
+      <c r="A18" s="12" t="s">
         <v>30</v>
       </c>
       <c r="B18" s="6" t="s">
@@ -2060,25 +1471,53 @@
       <c r="D18" s="7">
         <v>1</v>
       </c>
-      <c r="E18" s="11" t="s">
+      <c r="E18" s="10" t="s">
         <v>23</v>
       </c>
       <c r="F18" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G18" s="15" t="s">
+      <c r="G18" s="14" t="s">
         <v>13</v>
       </c>
       <c r="H18" s="7">
         <v>1</v>
       </c>
-      <c r="I18" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="J18" s="10"/>
+      <c r="I18" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="J18" s="9"/>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" s="7">
+        <v>1</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G19" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="H19" s="7">
+        <v>1</v>
+      </c>
+      <c r="I19" s="10" t="s">
+        <v>23</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>